--- a/Corrected/1.2_MethodList_ByRowID_LuizaCorrected_n1163.xlsx
+++ b/Corrected/1.2_MethodList_ByRowID_LuizaCorrected_n1163.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrlee/Dropbox/IPBES/Values Assessment/IPBESValueAssessment/Corrected/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70238B4-4BDC-E84A-9544-EB8EC3649712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BC2E56-5AB5-F542-8589-83B5848865A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="460" windowWidth="15920" windowHeight="25180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14420" yWindow="460" windowWidth="15920" windowHeight="25180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3490" uniqueCount="2444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3488" uniqueCount="2445">
   <si>
     <t>RowID</t>
   </si>
@@ -7285,9 +7285,6 @@
     <t>1149</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>1150</t>
   </si>
   <si>
@@ -7352,6 +7349,12 @@
   </si>
   <si>
     <t>1162</t>
+  </si>
+  <si>
+    <t>10;23</t>
+  </si>
+  <si>
+    <t>14;43</t>
   </si>
 </sst>
 </file>
@@ -7688,7 +7691,7 @@
   <dimension ref="A1:C1164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1109" workbookViewId="0">
-      <selection activeCell="D1166" sqref="D1166"/>
+      <selection activeCell="F1160" sqref="F1160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20339,24 +20342,24 @@
       <c r="B1150" t="s">
         <v>1143</v>
       </c>
-      <c r="C1150" t="s">
-        <v>2421</v>
+      <c r="C1150">
+        <v>145</v>
       </c>
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B1151" t="s">
         <v>2422</v>
       </c>
-      <c r="B1151" t="s">
-        <v>2423</v>
-      </c>
       <c r="C1151" t="s">
-        <v>2421</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="B1152" t="s">
         <v>1408</v>
@@ -20367,10 +20370,10 @@
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B1153" t="s">
         <v>2425</v>
-      </c>
-      <c r="B1153" t="s">
-        <v>2426</v>
       </c>
       <c r="C1153" t="s">
         <v>1093</v>
@@ -20378,10 +20381,10 @@
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B1154" t="s">
         <v>2427</v>
-      </c>
-      <c r="B1154" t="s">
-        <v>2428</v>
       </c>
       <c r="C1154" t="s">
         <v>5</v>
@@ -20389,10 +20392,10 @@
     </row>
     <row r="1155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B1155" t="s">
         <v>2429</v>
-      </c>
-      <c r="B1155" t="s">
-        <v>2430</v>
       </c>
       <c r="C1155" t="s">
         <v>5</v>
@@ -20400,7 +20403,7 @@
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="B1156" t="s">
         <v>4</v>
@@ -20411,10 +20414,10 @@
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B1157" t="s">
         <v>2432</v>
-      </c>
-      <c r="B1157" t="s">
-        <v>2433</v>
       </c>
       <c r="C1157">
         <v>69</v>
@@ -20422,7 +20425,7 @@
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="B1158" t="s">
         <v>1190</v>
@@ -20433,10 +20436,10 @@
     </row>
     <row r="1159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B1159" t="s">
         <v>2435</v>
-      </c>
-      <c r="B1159" t="s">
-        <v>2436</v>
       </c>
       <c r="C1159" t="s">
         <v>52</v>
@@ -20444,21 +20447,21 @@
     </row>
     <row r="1160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="B1160" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="C1160" t="s">
-        <v>2421</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="1161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B1161" t="s">
         <v>2438</v>
-      </c>
-      <c r="B1161" t="s">
-        <v>2439</v>
       </c>
       <c r="C1161" t="s">
         <v>1050</v>
@@ -20466,24 +20469,24 @@
     </row>
     <row r="1162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B1162" t="s">
         <v>2440</v>
       </c>
-      <c r="B1162" t="s">
+      <c r="C1162" t="s">
         <v>2441</v>
-      </c>
-      <c r="C1162" t="s">
-        <v>2442</v>
       </c>
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="B1163" t="s">
         <v>637</v>
       </c>
-      <c r="C1163" t="s">
-        <v>2421</v>
+      <c r="C1163">
+        <v>67</v>
       </c>
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.2">
